--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H2">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I2">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J2">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N2">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q2">
-        <v>89.15302089871489</v>
+        <v>99.54658450041798</v>
       </c>
       <c r="R2">
-        <v>802.3771880884339</v>
+        <v>895.9192605037618</v>
       </c>
       <c r="S2">
-        <v>0.001969134772782395</v>
+        <v>0.002123649477944588</v>
       </c>
       <c r="T2">
-        <v>0.001969134772782394</v>
+        <v>0.002123649477944588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H3">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I3">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J3">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q3">
-        <v>162.5977668552051</v>
+        <v>150.6329821496121</v>
       </c>
       <c r="R3">
-        <v>1463.379901696846</v>
+        <v>1355.696839346509</v>
       </c>
       <c r="S3">
-        <v>0.003591318762547556</v>
+        <v>0.003213486987109206</v>
       </c>
       <c r="T3">
-        <v>0.003591318762547556</v>
+        <v>0.003213486987109207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H4">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I4">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J4">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N4">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q4">
-        <v>55.92503943816222</v>
+        <v>59.16974226184266</v>
       </c>
       <c r="R4">
-        <v>503.32535494346</v>
+        <v>532.527680356584</v>
       </c>
       <c r="S4">
-        <v>0.001235223873703863</v>
+        <v>0.001262281301715082</v>
       </c>
       <c r="T4">
-        <v>0.001235223873703863</v>
+        <v>0.001262281301715082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H5">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I5">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J5">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N5">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O5">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P5">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q5">
-        <v>139.5448006732049</v>
+        <v>119.1074674188471</v>
       </c>
       <c r="R5">
-        <v>1255.903206058844</v>
+        <v>1071.967206769624</v>
       </c>
       <c r="S5">
-        <v>0.003082144795505822</v>
+        <v>0.002540946153730414</v>
       </c>
       <c r="T5">
-        <v>0.003082144795505822</v>
+        <v>0.002540946153730414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J6">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N6">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q6">
-        <v>8722.04955202702</v>
+        <v>10512.43569815065</v>
       </c>
       <c r="R6">
-        <v>78498.44596824318</v>
+        <v>94611.92128335584</v>
       </c>
       <c r="S6">
-        <v>0.1926450824626526</v>
+        <v>0.224264134167355</v>
       </c>
       <c r="T6">
-        <v>0.1926450824626526</v>
+        <v>0.224264134167355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J7">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q7">
         <v>15907.32165061698</v>
@@ -883,10 +883,10 @@
         <v>143165.8948555528</v>
       </c>
       <c r="S7">
-        <v>0.3513471544576194</v>
+        <v>0.3393544388123889</v>
       </c>
       <c r="T7">
-        <v>0.3513471544576193</v>
+        <v>0.3393544388123889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J8">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N8">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q8">
-        <v>5471.278037037862</v>
+        <v>6248.512833719135</v>
       </c>
       <c r="R8">
-        <v>49241.50233334076</v>
+        <v>56236.6155034722</v>
       </c>
       <c r="S8">
-        <v>0.1208448544500993</v>
+        <v>0.1333009171922115</v>
       </c>
       <c r="T8">
-        <v>0.1208448544500993</v>
+        <v>0.1333009171922115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J9">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N9">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O9">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P9">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q9">
-        <v>13651.99579251689</v>
+        <v>12578.12710193936</v>
       </c>
       <c r="R9">
-        <v>122867.9621326521</v>
+        <v>113203.1439174542</v>
       </c>
       <c r="S9">
-        <v>0.3015334686579474</v>
+        <v>0.2683319893656627</v>
       </c>
       <c r="T9">
-        <v>0.3015334686579473</v>
+        <v>0.2683319893656626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H10">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I10">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J10">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N10">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q10">
-        <v>210.4342361519098</v>
+        <v>272.0261800516699</v>
       </c>
       <c r="R10">
-        <v>1893.908125367188</v>
+        <v>2448.23562046503</v>
       </c>
       <c r="S10">
-        <v>0.004647889298797736</v>
+        <v>0.005803195138770069</v>
       </c>
       <c r="T10">
-        <v>0.004647889298797734</v>
+        <v>0.005803195138770068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H11">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I11">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J11">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q11">
-        <v>383.7911101975302</v>
+        <v>411.6275302622594</v>
       </c>
       <c r="R11">
-        <v>3454.119991777772</v>
+        <v>3704.647772360334</v>
       </c>
       <c r="S11">
-        <v>0.008476845910059462</v>
+        <v>0.008781341862566835</v>
       </c>
       <c r="T11">
-        <v>0.008476845910059459</v>
+        <v>0.008781341862566835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H12">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I12">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J12">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N12">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q12">
-        <v>132.0038607475245</v>
+        <v>161.6903185871067</v>
       </c>
       <c r="R12">
-        <v>1188.03474672772</v>
+        <v>1455.21286728396</v>
       </c>
       <c r="S12">
-        <v>0.002915587040340239</v>
+        <v>0.003449375610217561</v>
       </c>
       <c r="T12">
-        <v>0.002915587040340237</v>
+        <v>0.00344937561021756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H13">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I13">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J13">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N13">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O13">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P13">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q13">
-        <v>329.3775493260897</v>
+        <v>325.4792672212845</v>
       </c>
       <c r="R13">
-        <v>2964.397943934808</v>
+        <v>2929.31340499156</v>
       </c>
       <c r="S13">
-        <v>0.007275006266907118</v>
+        <v>0.006943521763053214</v>
       </c>
       <c r="T13">
-        <v>0.007275006266907115</v>
+        <v>0.006943521763053212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H14">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I14">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J14">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N14">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q14">
-        <v>3.937761169432999</v>
+        <v>6.869117911172</v>
       </c>
       <c r="R14">
-        <v>35.439850524897</v>
+        <v>61.82206120054801</v>
       </c>
       <c r="S14">
-        <v>8.697386098057123E-05</v>
+        <v>0.0001465404236540028</v>
       </c>
       <c r="T14">
-        <v>8.69738609805712E-05</v>
+        <v>0.0001465404236540028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H15">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I15">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J15">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q15">
-        <v>7.181710345926998</v>
+        <v>10.39428646286511</v>
       </c>
       <c r="R15">
-        <v>64.63539311334299</v>
+        <v>93.548578165786</v>
       </c>
       <c r="S15">
-        <v>0.0001586234030844802</v>
+        <v>0.0002217436301933324</v>
       </c>
       <c r="T15">
-        <v>0.0001586234030844802</v>
+        <v>0.0002217436301933324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H16">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I16">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J16">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N16">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q16">
-        <v>2.47012884677</v>
+        <v>4.082952101370667</v>
       </c>
       <c r="R16">
-        <v>22.23115962093</v>
+        <v>36.74656891233601</v>
       </c>
       <c r="S16">
-        <v>5.455806832337858E-05</v>
+        <v>8.710252734499567E-05</v>
       </c>
       <c r="T16">
-        <v>5.455806832337856E-05</v>
+        <v>8.710252734499564E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H17">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I17">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J17">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N17">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O17">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P17">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q17">
-        <v>6.163493866477999</v>
+        <v>8.218898136055113</v>
       </c>
       <c r="R17">
-        <v>55.47144479830199</v>
+        <v>73.97008322449602</v>
       </c>
       <c r="S17">
-        <v>0.000136133918648715</v>
+        <v>0.0001753355860827139</v>
       </c>
       <c r="T17">
-        <v>0.000136133918648715</v>
+        <v>0.0001753355860827139</v>
       </c>
     </row>
   </sheetData>
